--- a/Some statistics.xlsx
+++ b/Some statistics.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="22515" windowHeight="10815"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="22515" windowHeight="10815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="preflop correction using SPR" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>Outs distribution on flop</t>
   </si>
@@ -343,13 +343,46 @@
   </si>
   <si>
     <t>Some crazy outs turn</t>
+  </si>
+  <si>
+    <t>preflop correction using stack to pot ration</t>
+  </si>
+  <si>
+    <t>max table players</t>
+  </si>
+  <si>
+    <t>rangeUpper</t>
+  </si>
+  <si>
+    <t>STRs</t>
+  </si>
+  <si>
+    <t>early position</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>tau ajust</t>
+  </si>
+  <si>
+    <t>midle position</t>
+  </si>
+  <si>
+    <t>later position</t>
+  </si>
+  <si>
+    <t>sprUpper</t>
+  </si>
+  <si>
+    <t>raise prob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +406,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -382,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -408,25 +465,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Encabezado 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="4" builtinId="17"/>
     <cellStyle name="Título 3" xfId="2" builtinId="18"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1875,12 +1948,717 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20.25" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickTop="1">
+      <c r="A3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickTop="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>($D$4/$D$3)*B8</f>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f>$A8*($D$3+2-B8)</f>
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F22" si="0">($D$4/$D$3)*E8</f>
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <f>$A8*($D$3+2-E8)</f>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I22" si="1">($D$4/$D$3)*H8</f>
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <f>$A8*($D$3+2-H8)</f>
+        <v>3</v>
+      </c>
+      <c r="L8" s="10">
+        <f>1 - ($A8/$D$5)</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C22" si="2">($D$4/$D$3)*B9</f>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D22" si="3">$A9*($D$3+2-B9)</f>
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G22" si="4">$A9*($D$3+2-E9)</f>
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J22" si="5">$A9*($D$3+2-H9)</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" ref="L9:L22" si="6">1 - ($A9/$D$5)</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="6"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="6"/>
+        <v>0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="6"/>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
